--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1232,7 +1232,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="A5" sqref="A5:XFD9"/>
-      <selection pane="bottomLeft" activeCell="B40" sqref="B40"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,7 +1395,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>29</v>
+        <v>31.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1405,7 +1405,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2073,13 +2073,15 @@
         <v>44986</v>
       </c>
       <c r="B41" s="20"/>
-      <c r="C41" s="13"/>
+      <c r="C41" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D41" s="37"/>
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G41" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H41" s="37"/>
       <c r="I41" s="9"/>
@@ -2091,13 +2093,15 @@
         <v>45017</v>
       </c>
       <c r="B42" s="20"/>
-      <c r="C42" s="13"/>
+      <c r="C42" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D42" s="37"/>
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G42" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H42" s="37"/>
       <c r="I42" s="9"/>
@@ -2108,7 +2112,9 @@
       <c r="A43" s="38">
         <v>45047</v>
       </c>
-      <c r="B43" s="20"/>
+      <c r="B43" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="13"/>
       <c r="D43" s="37"/>
       <c r="E43" s="9"/>
@@ -2117,10 +2123,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H43" s="37"/>
+      <c r="H43" s="37">
+        <v>1</v>
+      </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="20"/>
+      <c r="K43" s="45">
+        <v>45044</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38">

--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -164,9 +164,6 @@
     <t>VILLANUEVA, DAVE RONILLO VERGARA</t>
   </si>
   <si>
-    <t>CONTRACTUAL</t>
-  </si>
-  <si>
     <t>ARCHITECT I</t>
   </si>
   <si>
@@ -204,6 +201,18 @@
   </si>
   <si>
     <t>1/4,5/2023</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>CASUAL</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/8,9/2023</t>
   </si>
 </sst>
 </file>
@@ -898,7 +907,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1227,12 +1236,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A26" activePane="bottomLeft"/>
-      <selection activeCell="A5" sqref="A5:XFD9"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <pane ySplit="3390" topLeftCell="A26" activePane="bottomLeft"/>
+      <selection activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1276,7 +1285,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
@@ -1298,13 +1307,15 @@
         <v>16</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>56</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1395,7 +1406,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1412,7 +1423,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1634,7 +1645,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -1739,7 +1750,7 @@
         <v>44682</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -1755,7 +1766,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1763,7 +1774,7 @@
         <v>44713</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -1807,7 +1818,7 @@
         <v>44774</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="13">
         <v>1.25</v>
@@ -1829,7 +1840,7 @@
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="37"/>
@@ -1845,7 +1856,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1873,7 +1884,7 @@
         <v>44835</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -1936,7 +1947,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1957,7 +1968,7 @@
         <v>44927</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -1975,13 +1986,13 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="37"/>
@@ -2001,7 +2012,7 @@
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="37"/>
@@ -2023,7 +2034,7 @@
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="37"/>
@@ -2047,7 +2058,7 @@
         <v>44958</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -2113,7 +2124,7 @@
         <v>45047</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="37"/>
@@ -2133,12 +2144,14 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="38">
-        <v>45078</v>
-      </c>
-      <c r="B44" s="20"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C44" s="13"/>
-      <c r="D44" s="37"/>
+      <c r="D44" s="37">
+        <v>1</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13" t="str">
@@ -2148,13 +2161,15 @@
       <c r="H44" s="37"/>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="20"/>
+      <c r="K44" s="45">
+        <v>45048</v>
+      </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="38">
-        <v>45108</v>
-      </c>
-      <c r="B45" s="20"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="20" t="s">
+        <v>58</v>
+      </c>
       <c r="C45" s="13"/>
       <c r="D45" s="37"/>
       <c r="E45" s="9"/>
@@ -2166,11 +2181,13 @@
       <c r="H45" s="37"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
+      <c r="K45" s="45" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2188,7 +2205,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2206,7 +2223,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2224,7 +2241,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2242,7 +2259,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2260,7 +2277,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2278,7 +2295,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2296,7 +2313,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2314,7 +2331,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2332,7 +2349,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2350,7 +2367,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2368,7 +2385,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2386,7 +2403,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2404,7 +2421,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2422,7 +2439,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2440,7 +2457,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2458,7 +2475,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2476,7 +2493,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2494,7 +2511,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2512,7 +2529,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2530,7 +2547,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2548,7 +2565,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2566,7 +2583,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2584,7 +2601,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2602,7 +2619,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2620,7 +2637,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2638,7 +2655,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2656,7 +2673,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2674,7 +2691,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2692,7 +2709,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38">
-        <v>46023</v>
+        <v>45962</v>
       </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2710,7 +2727,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38">
-        <v>46054</v>
+        <v>45992</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2728,7 +2745,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38">
-        <v>46082</v>
+        <v>46023</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2746,7 +2763,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38">
-        <v>46113</v>
+        <v>46054</v>
       </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2764,7 +2781,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38">
-        <v>46143</v>
+        <v>46082</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2782,7 +2799,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38">
-        <v>46174</v>
+        <v>46113</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2800,7 +2817,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38">
-        <v>46204</v>
+        <v>46143</v>
       </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2818,7 +2835,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38">
-        <v>46235</v>
+        <v>46174</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2836,7 +2853,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38">
-        <v>46266</v>
+        <v>46204</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2854,7 +2871,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38">
-        <v>46296</v>
+        <v>46235</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2872,7 +2889,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38">
-        <v>46327</v>
+        <v>46266</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2890,7 +2907,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38">
-        <v>46357</v>
+        <v>46296</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2908,7 +2925,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38">
-        <v>46388</v>
+        <v>46327</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2926,7 +2943,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38">
-        <v>46419</v>
+        <v>46357</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2944,7 +2961,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38">
-        <v>46447</v>
+        <v>46388</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2962,7 +2979,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38">
-        <v>46478</v>
+        <v>46419</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2980,7 +2997,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38">
-        <v>46508</v>
+        <v>46447</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2998,7 +3015,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38">
-        <v>46539</v>
+        <v>46478</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3016,7 +3033,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38">
-        <v>46569</v>
+        <v>46508</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3034,7 +3051,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38">
-        <v>46600</v>
+        <v>46539</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3052,7 +3069,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38">
-        <v>46631</v>
+        <v>46569</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3070,7 +3087,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38">
-        <v>46661</v>
+        <v>46600</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3088,7 +3105,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38">
-        <v>46692</v>
+        <v>46631</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3106,7 +3123,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38">
-        <v>46722</v>
+        <v>46661</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3124,7 +3141,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38">
-        <v>46753</v>
+        <v>46692</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3142,7 +3159,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38">
-        <v>46784</v>
+        <v>46722</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3160,7 +3177,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38">
-        <v>46813</v>
+        <v>46753</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3178,7 +3195,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38">
-        <v>46844</v>
+        <v>46784</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3196,7 +3213,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38">
-        <v>46874</v>
+        <v>46813</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3214,7 +3231,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38">
-        <v>46905</v>
+        <v>46844</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3232,7 +3249,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38">
-        <v>46935</v>
+        <v>46874</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3250,7 +3267,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38">
-        <v>46966</v>
+        <v>46905</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3268,7 +3285,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38">
-        <v>46997</v>
+        <v>46935</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3286,7 +3303,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38">
-        <v>47027</v>
+        <v>46966</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3304,7 +3321,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38">
-        <v>47058</v>
+        <v>46997</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3322,7 +3339,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38">
-        <v>47088</v>
+        <v>47027</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3340,7 +3357,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38">
-        <v>47119</v>
+        <v>47058</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3358,7 +3375,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38">
-        <v>47150</v>
+        <v>47088</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3376,7 +3393,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38">
-        <v>47178</v>
+        <v>47119</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3394,7 +3411,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38">
-        <v>47209</v>
+        <v>47150</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3412,7 +3429,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38">
-        <v>47239</v>
+        <v>47178</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3430,7 +3447,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38">
-        <v>47270</v>
+        <v>47209</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3448,7 +3465,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38">
-        <v>47300</v>
+        <v>47239</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3466,7 +3483,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38">
-        <v>47331</v>
+        <v>47270</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3484,7 +3501,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38">
-        <v>47362</v>
+        <v>47300</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3502,7 +3519,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38">
-        <v>47392</v>
+        <v>47331</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3520,7 +3537,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38">
-        <v>47423</v>
+        <v>47362</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3538,7 +3555,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38">
-        <v>47453</v>
+        <v>47392</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3556,7 +3573,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38">
-        <v>47484</v>
+        <v>47423</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3574,7 +3591,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38">
-        <v>47515</v>
+        <v>47453</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3592,7 +3609,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38">
-        <v>47543</v>
+        <v>47484</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3610,7 +3627,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38">
-        <v>47574</v>
+        <v>47515</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3628,7 +3645,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38">
-        <v>47604</v>
+        <v>47543</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3646,7 +3663,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38">
-        <v>47635</v>
+        <v>47574</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3664,7 +3681,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38">
-        <v>47665</v>
+        <v>47604</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3682,7 +3699,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="38">
-        <v>47696</v>
+        <v>47635</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -3700,7 +3717,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="38">
-        <v>47727</v>
+        <v>47665</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -3718,7 +3735,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="38">
-        <v>47757</v>
+        <v>47696</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -3735,7 +3752,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="38"/>
+      <c r="A133" s="38">
+        <v>47727</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="37"/>
@@ -3751,20 +3770,54 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="39"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="41"/>
+      <c r="A134" s="38">
+        <v>47757</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="37"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="40" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="41"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="37"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="38"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="37"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="37"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="39"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="40"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="41"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3780,7 +3833,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>

--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1239,9 +1239,9 @@
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3390" topLeftCell="A26" activePane="bottomLeft"/>
+      <pane ySplit="3390" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30.5</v>
+        <v>33</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1416,7 +1416,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.5</v>
+        <v>25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2126,13 +2126,15 @@
       <c r="B43" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="37"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="37">
         <v>1</v>
@@ -2189,19 +2191,27 @@
       <c r="A46" s="38">
         <v>45078</v>
       </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="B46" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="37"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="37"/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="37">
+        <v>1</v>
+      </c>
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="20"/>
+      <c r="K46" s="45">
+        <v>45093</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38">

--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1241,7 +1241,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3390" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="C5" sqref="C5"/>
-      <selection pane="bottomLeft" activeCell="I46" sqref="I46"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,7 +1406,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1416,7 +1416,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>25</v>
+        <v>27.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2218,13 +2218,15 @@
         <v>45108</v>
       </c>
       <c r="B47" s="20"/>
-      <c r="C47" s="13"/>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D47" s="37"/>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="37"/>
       <c r="I47" s="9"/>
@@ -2236,13 +2238,15 @@
         <v>45139</v>
       </c>
       <c r="B48" s="20"/>
-      <c r="C48" s="13"/>
+      <c r="C48" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D48" s="37"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G48" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H48" s="37"/>
       <c r="I48" s="9"/>
@@ -2253,9 +2257,13 @@
       <c r="A49" s="38">
         <v>45170</v>
       </c>
-      <c r="B49" s="20"/>
+      <c r="B49" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C49" s="13"/>
-      <c r="D49" s="37"/>
+      <c r="D49" s="37">
+        <v>1</v>
+      </c>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
@@ -2265,7 +2273,9 @@
       <c r="H49" s="37"/>
       <c r="I49" s="9"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="20"/>
+      <c r="K49" s="45">
+        <v>45175</v>
+      </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38">

--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>2024</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/28,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1250,7 @@
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3390" topLeftCell="A35" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1415,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>38.25</v>
+        <v>37.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1419,7 +1425,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>29.25</v>
+        <v>30.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2338,19 +2344,27 @@
       <c r="A52" s="38">
         <v>45261</v>
       </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="37"/>
+      <c r="B52" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="37">
+        <v>2</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="37"/>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="20"/>
+      <c r="K52" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">

--- a/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
+++ b/NEW HR/VILLANUEVA, DAVE RONILLO VERGARA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DA72D-E49C-4BD5-85D0-DF382A18ED90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -227,7 +228,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -899,7 +900,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -916,25 +917,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1241,34 +1242,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3390" topLeftCell="A35" activePane="bottomLeft"/>
+      <pane ySplit="3396" topLeftCell="A47" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <selection pane="bottomLeft" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1289,7 +1290,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1311,7 +1312,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1334,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1341,7 +1342,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1354,7 +1355,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1371,7 +1372,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1415,7 +1416,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.5</v>
+        <v>38.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1425,12 +1426,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>30.5</v>
+        <v>31.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1453,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44256</v>
       </c>
@@ -1472,7 +1473,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44287</v>
       </c>
@@ -1492,7 +1493,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="38">
         <v>44317</v>
       </c>
@@ -1512,7 +1513,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>44348</v>
       </c>
@@ -1532,7 +1533,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="38">
         <v>44378</v>
       </c>
@@ -1552,7 +1553,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="38">
         <v>44409</v>
       </c>
@@ -1572,7 +1573,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>44440</v>
       </c>
@@ -1592,7 +1593,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="38">
         <v>44470</v>
       </c>
@@ -1612,7 +1613,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38">
         <v>44501</v>
       </c>
@@ -1632,7 +1633,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38">
         <v>44531</v>
       </c>
@@ -1652,7 +1653,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="44" t="s">
         <v>44</v>
       </c>
@@ -1670,7 +1671,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38">
         <v>44562</v>
       </c>
@@ -1690,7 +1691,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38">
         <f>EDATE(A22,1)</f>
         <v>44593</v>
@@ -1711,7 +1712,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38">
         <f t="shared" ref="A24:A26" si="0">EDATE(A23,1)</f>
         <v>44621</v>
@@ -1732,7 +1733,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38">
         <f t="shared" si="0"/>
         <v>44652</v>
@@ -1753,7 +1754,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38">
         <f t="shared" si="0"/>
         <v>44682</v>
@@ -1778,7 +1779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38">
         <v>44713</v>
       </c>
@@ -1802,7 +1803,7 @@
         <v>44721</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38">
         <v>44743</v>
       </c>
@@ -1822,7 +1823,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38">
         <v>44774</v>
       </c>
@@ -1846,7 +1847,7 @@
         <v>44774</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20" t="s">
         <v>49</v>
@@ -1868,7 +1869,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38">
         <v>44805</v>
       </c>
@@ -1888,7 +1889,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38">
         <v>44835</v>
       </c>
@@ -1914,7 +1915,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38">
         <v>44866</v>
       </c>
@@ -1934,7 +1935,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38">
         <v>44896</v>
       </c>
@@ -1954,7 +1955,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="44" t="s">
         <v>52</v>
       </c>
@@ -1972,7 +1973,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38">
         <v>44927</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20" t="s">
         <v>48</v>
@@ -2018,7 +2019,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20" t="s">
         <v>51</v>
@@ -2040,7 +2041,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -2062,7 +2063,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38">
         <v>44958</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38">
         <v>44986</v>
       </c>
@@ -2108,7 +2109,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38">
         <v>45017</v>
       </c>
@@ -2128,7 +2129,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38">
         <v>45047</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="20" t="s">
         <v>53</v>
@@ -2176,7 +2177,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20" t="s">
         <v>58</v>
@@ -2196,7 +2197,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38">
         <v>45078</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38">
         <v>45108</v>
       </c>
@@ -2242,7 +2243,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38">
         <v>45139</v>
       </c>
@@ -2262,7 +2263,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38">
         <v>45170</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>45175</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38">
         <v>45200</v>
       </c>
@@ -2314,7 +2315,7 @@
         <v>45208</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38">
         <v>45231</v>
       </c>
@@ -2340,7 +2341,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38">
         <v>45261</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="44" t="s">
         <v>60</v>
       </c>
@@ -2381,25 +2382,31 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38">
         <v>45292</v>
       </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="37"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="45">
+        <v>45320</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38">
         <v>45323</v>
       </c>
@@ -2417,7 +2424,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38">
         <v>45352</v>
       </c>
@@ -2435,7 +2442,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38">
         <v>45383</v>
       </c>
@@ -2453,7 +2460,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38">
         <v>45413</v>
       </c>
@@ -2471,7 +2478,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38">
         <v>45444</v>
       </c>
@@ -2489,7 +2496,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38">
         <v>45474</v>
       </c>
@@ -2507,7 +2514,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38">
         <v>45505</v>
       </c>
@@ -2525,7 +2532,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38">
         <v>45536</v>
       </c>
@@ -2543,7 +2550,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38">
         <v>45566</v>
       </c>
@@ -2561,7 +2568,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38">
         <v>45597</v>
       </c>
@@ -2579,7 +2586,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38">
         <v>45627</v>
       </c>
@@ -2597,7 +2604,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38">
         <v>45658</v>
       </c>
@@ -2615,7 +2622,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38">
         <v>45689</v>
       </c>
@@ -2633,7 +2640,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38">
         <v>45717</v>
       </c>
@@ -2651,7 +2658,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38">
         <v>45748</v>
       </c>
@@ -2669,7 +2676,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38">
         <v>45778</v>
       </c>
@@ -2687,7 +2694,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38">
         <v>45809</v>
       </c>
@@ -2705,7 +2712,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38">
         <v>45839</v>
       </c>
@@ -2723,7 +2730,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38">
         <v>45870</v>
       </c>
@@ -2741,7 +2748,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38">
         <v>45901</v>
       </c>
@@ -2759,7 +2766,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38">
         <v>45931</v>
       </c>
@@ -2777,7 +2784,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38">
         <v>45962</v>
       </c>
@@ -2795,7 +2802,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38">
         <v>45992</v>
       </c>
@@ -2813,7 +2820,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38">
         <v>46023</v>
       </c>
@@ -2831,7 +2838,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38">
         <v>46054</v>
       </c>
@@ -2849,7 +2856,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38">
         <v>46082</v>
       </c>
@@ -2867,7 +2874,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38">
         <v>46113</v>
       </c>
@@ -2885,7 +2892,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38">
         <v>46143</v>
       </c>
@@ -2903,7 +2910,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38">
         <v>46174</v>
       </c>
@@ -2921,7 +2928,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38">
         <v>46204</v>
       </c>
@@ -2939,7 +2946,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38">
         <v>46235</v>
       </c>
@@ -2957,7 +2964,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38">
         <v>46266</v>
       </c>
@@ -2975,7 +2982,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38">
         <v>46296</v>
       </c>
@@ -2993,7 +3000,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38">
         <v>46327</v>
       </c>
@@ -3011,7 +3018,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38">
         <v>46357</v>
       </c>
@@ -3029,7 +3036,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38">
         <v>46388</v>
       </c>
@@ -3047,7 +3054,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38">
         <v>46419</v>
       </c>
@@ -3065,7 +3072,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38">
         <v>46447</v>
       </c>
@@ -3083,7 +3090,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38">
         <v>46478</v>
       </c>
@@ -3101,7 +3108,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38">
         <v>46508</v>
       </c>
@@ -3119,7 +3126,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38">
         <v>46539</v>
       </c>
@@ -3137,7 +3144,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38">
         <v>46569</v>
       </c>
@@ -3155,7 +3162,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38">
         <v>46600</v>
       </c>
@@ -3173,7 +3180,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38">
         <v>46631</v>
       </c>
@@ -3191,7 +3198,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38">
         <v>46661</v>
       </c>
@@ -3209,7 +3216,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38">
         <v>46692</v>
       </c>
@@ -3227,7 +3234,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38">
         <v>46722</v>
       </c>
@@ -3245,7 +3252,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38">
         <v>46753</v>
       </c>
@@ -3263,7 +3270,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38">
         <v>46784</v>
       </c>
@@ -3281,7 +3288,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38">
         <v>46813</v>
       </c>
@@ -3299,7 +3306,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38">
         <v>46844</v>
       </c>
@@ -3317,7 +3324,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38">
         <v>46874</v>
       </c>
@@ -3335,7 +3342,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38">
         <v>46905</v>
       </c>
@@ -3353,7 +3360,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38">
         <v>46935</v>
       </c>
@@ -3371,7 +3378,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38">
         <v>46966</v>
       </c>
@@ -3389,7 +3396,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38">
         <v>46997</v>
       </c>
@@ -3407,7 +3414,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38">
         <v>47027</v>
       </c>
@@ -3425,7 +3432,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38">
         <v>47058</v>
       </c>
@@ -3443,7 +3450,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38">
         <v>47088</v>
       </c>
@@ -3461,7 +3468,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38">
         <v>47119</v>
       </c>
@@ -3479,7 +3486,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38">
         <v>47150</v>
       </c>
@@ -3497,7 +3504,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38">
         <v>47178</v>
       </c>
@@ -3515,7 +3522,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38">
         <v>47209</v>
       </c>
@@ -3533,7 +3540,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38">
         <v>47239</v>
       </c>
@@ -3551,7 +3558,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38">
         <v>47270</v>
       </c>
@@ -3569,7 +3576,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38">
         <v>47300</v>
       </c>
@@ -3587,7 +3594,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38">
         <v>47331</v>
       </c>
@@ -3605,7 +3612,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38">
         <v>47362</v>
       </c>
@@ -3623,7 +3630,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38">
         <v>47392</v>
       </c>
@@ -3641,7 +3648,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38">
         <v>47423</v>
       </c>
@@ -3659,7 +3666,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38">
         <v>47453</v>
       </c>
@@ -3677,7 +3684,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38">
         <v>47484</v>
       </c>
@@ -3695,7 +3702,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38">
         <v>47515</v>
       </c>
@@ -3713,7 +3720,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38">
         <v>47543</v>
       </c>
@@ -3731,7 +3738,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38">
         <v>47574</v>
       </c>
@@ -3749,7 +3756,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="38">
         <v>47604</v>
       </c>
@@ -3767,7 +3774,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="38">
         <v>47635</v>
       </c>
@@ -3785,7 +3792,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="38">
         <v>47665</v>
       </c>
@@ -3803,7 +3810,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="38">
         <v>47696</v>
       </c>
@@ -3821,7 +3828,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="38">
         <v>47727</v>
       </c>
@@ -3839,7 +3846,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="38">
         <v>47757</v>
       </c>
@@ -3857,7 +3864,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="38"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -3873,7 +3880,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="39"/>
       <c r="B137" s="15"/>
       <c r="C137" s="40"/>
@@ -3904,10 +3911,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3930,28 +3937,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="46" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -3964,7 +3971,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3993,7 +4000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4013,17 +4020,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="47" t="s">
         <v>28</v>
       </c>
@@ -4044,7 +4051,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="46">
         <v>1</v>
       </c>
@@ -4071,7 +4078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="46">
         <v>2</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="46">
         <v>3</v>
       </c>
@@ -4123,7 +4130,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="46">
         <v>4</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46">
         <v>5</v>
       </c>
@@ -4175,7 +4182,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="46">
         <v>6</v>
       </c>
@@ -4201,7 +4208,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="46">
         <v>7</v>
       </c>
@@ -4227,7 +4234,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -4253,7 +4260,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="46">
         <v>9</v>
       </c>
@@ -4273,7 +4280,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="46">
         <v>10</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="46">
         <v>11</v>
       </c>
@@ -4313,7 +4320,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="46">
         <v>12</v>
       </c>
@@ -4334,7 +4341,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="46">
         <v>13</v>
       </c>
@@ -4355,7 +4362,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="46">
         <v>14</v>
       </c>
@@ -4376,7 +4383,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="46">
         <v>15</v>
       </c>
@@ -4397,7 +4404,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="46">
         <v>16</v>
       </c>
@@ -4418,7 +4425,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="46">
         <v>17</v>
       </c>
@@ -4439,7 +4446,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="46">
         <v>18</v>
       </c>
@@ -4460,7 +4467,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="46">
         <v>19</v>
       </c>
@@ -4481,7 +4488,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="46">
         <v>20</v>
       </c>
@@ -4502,7 +4509,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="46">
         <v>21</v>
       </c>
@@ -4523,7 +4530,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="46">
         <v>22</v>
       </c>
@@ -4544,7 +4551,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="46">
         <v>23</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="46">
         <v>24</v>
       </c>
@@ -4586,7 +4593,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="46">
         <v>25</v>
       </c>
@@ -4607,7 +4614,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="46">
         <v>26</v>
       </c>
@@ -4628,7 +4635,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="46">
         <v>27</v>
       </c>
@@ -4649,7 +4656,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="46">
         <v>28</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="46">
         <v>29</v>
       </c>
@@ -4691,7 +4698,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="46">
         <v>30</v>
       </c>
@@ -4712,7 +4719,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="46">
         <v>31</v>
       </c>
@@ -4733,7 +4740,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="46">
         <v>32</v>
       </c>
@@ -4742,7 +4749,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="46">
         <v>33</v>
       </c>
@@ -4751,7 +4758,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="46">
         <v>34</v>
       </c>
@@ -4760,7 +4767,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="46">
         <v>35</v>
       </c>
@@ -4769,7 +4776,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="46">
         <v>36</v>
       </c>
@@ -4778,7 +4785,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="46">
         <v>37</v>
       </c>
@@ -4787,7 +4794,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="46">
         <v>38</v>
       </c>
@@ -4796,7 +4803,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="46">
         <v>39</v>
       </c>
@@ -4805,7 +4812,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="46">
         <v>40</v>
       </c>
@@ -4814,7 +4821,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="46">
         <v>41</v>
       </c>
@@ -4823,7 +4830,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="46">
         <v>42</v>
       </c>
@@ -4832,7 +4839,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="46">
         <v>43</v>
       </c>
@@ -4841,7 +4848,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="46">
         <v>44</v>
       </c>
@@ -4850,7 +4857,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="46">
         <v>45</v>
       </c>
@@ -4859,7 +4866,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="46">
         <v>46</v>
       </c>
@@ -4868,7 +4875,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="46">
         <v>47</v>
       </c>
@@ -4877,7 +4884,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="46">
         <v>48</v>
       </c>
@@ -4886,7 +4893,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="46">
         <v>49</v>
       </c>
@@ -4895,7 +4902,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="46">
         <v>50</v>
       </c>
@@ -4904,7 +4911,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="46">
         <v>51</v>
       </c>
@@ -4913,7 +4920,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="46">
         <v>52</v>
       </c>
@@ -4922,7 +4929,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="46">
         <v>53</v>
       </c>
@@ -4931,7 +4938,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="46">
         <v>54</v>
       </c>
@@ -4940,7 +4947,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="46">
         <v>55</v>
       </c>
@@ -4949,7 +4956,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="46">
         <v>56</v>
       </c>
@@ -4958,7 +4965,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="46">
         <v>57</v>
       </c>
@@ -4967,7 +4974,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="46">
         <v>58</v>
       </c>
@@ -4976,7 +4983,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="46">
         <v>59</v>
       </c>
@@ -4985,7 +4992,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="46">
         <v>60</v>
       </c>
@@ -4994,7 +5001,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
